--- a/finishedGlycogenes.xlsx
+++ b/finishedGlycogenes.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="2227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="2226">
   <si>
     <t xml:space="preserve">Interacting entities</t>
   </si>
@@ -2218,7 +2218,7 @@
     <t xml:space="preserve">D-ribitol-5-phosphate cytidylyltransferase</t>
   </si>
   <si>
-    <t xml:space="preserve">Nucleotide_Sugar_Synthesis, O-Man</t>
+    <t xml:space="preserve">Nucleotide_Sugar_Synthesis</t>
   </si>
   <si>
     <t xml:space="preserve">Ribitol5P</t>
@@ -5245,7 +5245,7 @@
     <t xml:space="preserve">Dolichol phosphate-mannose biosynthesis regulatory protein</t>
   </si>
   <si>
-    <t xml:space="preserve">Dolichol_Pathway,O-Man,Nucleotide_Sugar_Synthesis, GPI_Linked</t>
+    <t xml:space="preserve">Dolichol_Pathway,Nucleotide_Sugar_Synthesis, GPI_Linked</t>
   </si>
   <si>
     <t xml:space="preserve">Enhancer</t>
@@ -5260,7 +5260,7 @@
     <t xml:space="preserve">Dolichol-phosphate mannosyltransferase subunit 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Dolichol_Pathway,O-Man,Nucleotide_Sugar_Synthesis</t>
+    <t xml:space="preserve">Dolichol_Pathway,Nucleotide_Sugar_Synthesis</t>
   </si>
   <si>
     <t xml:space="preserve">ManT,Dol-P-P_ManT</t>
@@ -5294,9 +5294,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dolichyl-phosphate beta-glucosyltransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dolichol_Pathway,Nucleotide_Sugar_Synthesis</t>
   </si>
   <si>
     <t xml:space="preserve">Glc(a1-?)Dol-P</t>
@@ -6806,13 +6803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L404"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F405" activeCellId="0" sqref="F405"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6827,7 +6824,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6865,7 +6862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -6903,7 +6900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -6941,7 +6938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -6979,7 +6976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -7017,7 +7014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -7055,7 +7052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -7093,7 +7090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -7131,7 +7128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
@@ -7169,7 +7166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
@@ -7207,7 +7204,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
@@ -7245,7 +7242,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
@@ -7283,7 +7280,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
@@ -7321,7 +7318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
@@ -7359,7 +7356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
@@ -7397,7 +7394,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
@@ -7435,7 +7432,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
@@ -7473,7 +7470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
@@ -7511,7 +7508,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
@@ -7549,7 +7546,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
@@ -7587,7 +7584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
@@ -7625,7 +7622,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
@@ -7663,7 +7660,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
@@ -7701,7 +7698,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
@@ -7739,7 +7736,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
@@ -7777,7 +7774,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
@@ -7815,7 +7812,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
@@ -7853,7 +7850,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
@@ -7891,7 +7888,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
@@ -7929,7 +7926,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>174</v>
       </c>
@@ -7967,7 +7964,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>174</v>
       </c>
@@ -8005,7 +8002,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
@@ -8043,7 +8040,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>12</v>
       </c>
@@ -8081,7 +8078,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>12</v>
       </c>
@@ -8119,7 +8116,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>12</v>
       </c>
@@ -8157,7 +8154,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>12</v>
       </c>
@@ -8195,7 +8192,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
@@ -8233,7 +8230,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>12</v>
       </c>
@@ -8271,7 +8268,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>12</v>
       </c>
@@ -8309,7 +8306,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>12</v>
       </c>
@@ -8347,7 +8344,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>12</v>
       </c>
@@ -8385,7 +8382,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>12</v>
       </c>
@@ -8423,7 +8420,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>12</v>
       </c>
@@ -8461,7 +8458,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>12</v>
       </c>
@@ -8499,7 +8496,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>12</v>
       </c>
@@ -8537,7 +8534,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>12</v>
       </c>
@@ -8575,7 +8572,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>12</v>
       </c>
@@ -8613,7 +8610,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>12</v>
       </c>
@@ -8651,7 +8648,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>12</v>
       </c>
@@ -8689,7 +8686,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>12</v>
       </c>
@@ -8727,7 +8724,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>12</v>
       </c>
@@ -8765,7 +8762,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>12</v>
       </c>
@@ -8803,7 +8800,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>12</v>
       </c>
@@ -8841,7 +8838,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>12</v>
       </c>
@@ -8879,7 +8876,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>12</v>
       </c>
@@ -8917,7 +8914,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>12</v>
       </c>
@@ -8955,7 +8952,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>12</v>
       </c>
@@ -8993,7 +8990,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>12</v>
       </c>
@@ -9031,7 +9028,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>12</v>
       </c>
@@ -9069,7 +9066,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>12</v>
       </c>
@@ -9107,7 +9104,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>12</v>
       </c>
@@ -9142,7 +9139,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>12</v>
       </c>
@@ -9180,7 +9177,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>12</v>
       </c>
@@ -9218,7 +9215,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>12</v>
       </c>
@@ -9256,7 +9253,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>12</v>
       </c>
@@ -9294,7 +9291,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>12</v>
       </c>
@@ -9332,7 +9329,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>12</v>
       </c>
@@ -9370,7 +9367,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>12</v>
       </c>
@@ -9408,7 +9405,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>12</v>
       </c>
@@ -9446,7 +9443,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>12</v>
       </c>
@@ -9484,7 +9481,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>12</v>
       </c>
@@ -9522,7 +9519,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>12</v>
       </c>
@@ -9560,7 +9557,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>12</v>
       </c>
@@ -9598,7 +9595,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>12</v>
       </c>
@@ -9636,7 +9633,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>12</v>
       </c>
@@ -9674,7 +9671,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>12</v>
       </c>
@@ -9712,7 +9709,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>12</v>
       </c>
@@ -9750,7 +9747,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>12</v>
       </c>
@@ -9788,7 +9785,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>12</v>
       </c>
@@ -9826,7 +9823,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>12</v>
       </c>
@@ -9864,7 +9861,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>12</v>
       </c>
@@ -9902,7 +9899,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>12</v>
       </c>
@@ -9940,7 +9937,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>12</v>
       </c>
@@ -9978,7 +9975,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>12</v>
       </c>
@@ -10016,7 +10013,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>12</v>
       </c>
@@ -10054,7 +10051,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>12</v>
       </c>
@@ -10092,7 +10089,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>12</v>
       </c>
@@ -10130,7 +10127,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>12</v>
       </c>
@@ -10168,7 +10165,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>12</v>
       </c>
@@ -10206,7 +10203,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>12</v>
       </c>
@@ -10244,7 +10241,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>12</v>
       </c>
@@ -10282,7 +10279,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>12</v>
       </c>
@@ -10320,7 +10317,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>12</v>
       </c>
@@ -10358,7 +10355,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>12</v>
       </c>
@@ -10396,7 +10393,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>12</v>
       </c>
@@ -10434,7 +10431,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>12</v>
       </c>
@@ -10472,7 +10469,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>12</v>
       </c>
@@ -10510,7 +10507,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>12</v>
       </c>
@@ -10548,7 +10545,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>12</v>
       </c>
@@ -10586,7 +10583,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>12</v>
       </c>
@@ -10624,7 +10621,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>12</v>
       </c>
@@ -10662,7 +10659,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>12</v>
       </c>
@@ -10700,7 +10697,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>12</v>
       </c>
@@ -10738,7 +10735,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>12</v>
       </c>
@@ -10776,7 +10773,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>12</v>
       </c>
@@ -10814,7 +10811,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>12</v>
       </c>
@@ -10852,7 +10849,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>12</v>
       </c>
@@ -10890,7 +10887,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>12</v>
       </c>
@@ -10928,7 +10925,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>12</v>
       </c>
@@ -10966,7 +10963,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>12</v>
       </c>
@@ -11004,7 +11001,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>12</v>
       </c>
@@ -11042,7 +11039,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>12</v>
       </c>
@@ -11080,7 +11077,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>12</v>
       </c>
@@ -11118,7 +11115,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>12</v>
       </c>
@@ -11156,7 +11153,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>648</v>
       </c>
@@ -11194,7 +11191,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>648</v>
       </c>
@@ -11232,7 +11229,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>12</v>
       </c>
@@ -11270,7 +11267,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>12</v>
       </c>
@@ -11308,7 +11305,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>12</v>
       </c>
@@ -11346,7 +11343,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>12</v>
       </c>
@@ -11384,7 +11381,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>12</v>
       </c>
@@ -11422,7 +11419,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>12</v>
       </c>
@@ -11460,7 +11457,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>12</v>
       </c>
@@ -11498,7 +11495,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>12</v>
       </c>
@@ -11536,7 +11533,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>12</v>
       </c>
@@ -11574,7 +11571,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>12</v>
       </c>
@@ -11612,7 +11609,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>12</v>
       </c>
@@ -11650,7 +11647,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>12</v>
       </c>
@@ -11688,7 +11685,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>12</v>
       </c>
@@ -11726,7 +11723,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>12</v>
       </c>
@@ -11764,7 +11761,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>12</v>
       </c>
@@ -11802,7 +11799,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>12</v>
       </c>
@@ -11840,7 +11837,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>12</v>
       </c>
@@ -11878,7 +11875,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>12</v>
       </c>
@@ -11916,7 +11913,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>12</v>
       </c>
@@ -11954,7 +11951,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>12</v>
       </c>
@@ -11992,7 +11989,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>12</v>
       </c>
@@ -12030,7 +12027,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>12</v>
       </c>
@@ -12068,7 +12065,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>12</v>
       </c>
@@ -12106,7 +12103,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>12</v>
       </c>
@@ -12141,7 +12138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>12</v>
       </c>
@@ -12176,7 +12173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>12</v>
       </c>
@@ -12211,7 +12208,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>12</v>
       </c>
@@ -12249,7 +12246,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>12</v>
       </c>
@@ -12287,7 +12284,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>12</v>
       </c>
@@ -12325,7 +12322,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>12</v>
       </c>
@@ -12363,7 +12360,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>12</v>
       </c>
@@ -12401,7 +12398,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>12</v>
       </c>
@@ -12439,7 +12436,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>851</v>
       </c>
@@ -12474,7 +12471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>851</v>
       </c>
@@ -12512,7 +12509,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>12</v>
       </c>
@@ -12550,7 +12547,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>12</v>
       </c>
@@ -12588,7 +12585,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>12</v>
       </c>
@@ -12626,7 +12623,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>879</v>
       </c>
@@ -12664,7 +12661,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>879</v>
       </c>
@@ -12702,7 +12699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>12</v>
       </c>
@@ -12740,7 +12737,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>894</v>
       </c>
@@ -12778,7 +12775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>894</v>
       </c>
@@ -12816,7 +12813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>12</v>
       </c>
@@ -12851,7 +12848,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>12</v>
       </c>
@@ -12886,7 +12883,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>12</v>
       </c>
@@ -12921,7 +12918,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>12</v>
       </c>
@@ -12959,7 +12956,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>12</v>
       </c>
@@ -12997,7 +12994,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>12</v>
       </c>
@@ -13035,7 +13032,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>12</v>
       </c>
@@ -13073,7 +13070,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>12</v>
       </c>
@@ -13111,7 +13108,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>12</v>
       </c>
@@ -13149,7 +13146,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>12</v>
       </c>
@@ -13187,7 +13184,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>12</v>
       </c>
@@ -13222,7 +13219,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>12</v>
       </c>
@@ -13257,7 +13254,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>12</v>
       </c>
@@ -13295,7 +13292,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>12</v>
       </c>
@@ -13333,7 +13330,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>12</v>
       </c>
@@ -13371,7 +13368,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>12</v>
       </c>
@@ -13406,7 +13403,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>12</v>
       </c>
@@ -13444,7 +13441,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>12</v>
       </c>
@@ -13482,7 +13479,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>12</v>
       </c>
@@ -13520,7 +13517,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>12</v>
       </c>
@@ -13558,7 +13555,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>12</v>
       </c>
@@ -13596,7 +13593,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>12</v>
       </c>
@@ -13634,7 +13631,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>12</v>
       </c>
@@ -13669,7 +13666,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>12</v>
       </c>
@@ -13704,7 +13701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>12</v>
       </c>
@@ -13742,7 +13739,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>12</v>
       </c>
@@ -13780,7 +13777,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>12</v>
       </c>
@@ -13818,7 +13815,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>12</v>
       </c>
@@ -13856,7 +13853,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>12</v>
       </c>
@@ -13894,7 +13891,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>12</v>
       </c>
@@ -13932,7 +13929,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>12</v>
       </c>
@@ -13970,7 +13967,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>12</v>
       </c>
@@ -14008,7 +14005,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>12</v>
       </c>
@@ -14046,7 +14043,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>12</v>
       </c>
@@ -14084,7 +14081,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>12</v>
       </c>
@@ -14122,7 +14119,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>12</v>
       </c>
@@ -14160,7 +14157,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>12</v>
       </c>
@@ -14198,7 +14195,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>12</v>
       </c>
@@ -14236,7 +14233,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>12</v>
       </c>
@@ -14274,7 +14271,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>1121</v>
       </c>
@@ -14312,7 +14309,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>1121</v>
       </c>
@@ -14350,7 +14347,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>12</v>
       </c>
@@ -14388,7 +14385,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>12</v>
       </c>
@@ -14426,7 +14423,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>12</v>
       </c>
@@ -14464,7 +14461,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>12</v>
       </c>
@@ -14502,7 +14499,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>12</v>
       </c>
@@ -14540,7 +14537,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>12</v>
       </c>
@@ -14578,7 +14575,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>12</v>
       </c>
@@ -14613,7 +14610,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>12</v>
       </c>
@@ -14651,7 +14648,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>12</v>
       </c>
@@ -14686,7 +14683,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>12</v>
       </c>
@@ -14724,7 +14721,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>12</v>
       </c>
@@ -14762,7 +14759,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>12</v>
       </c>
@@ -14797,7 +14794,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>12</v>
       </c>
@@ -14835,7 +14832,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>12</v>
       </c>
@@ -14873,7 +14870,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>12</v>
       </c>
@@ -14911,7 +14908,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>12</v>
       </c>
@@ -14946,7 +14943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>12</v>
       </c>
@@ -14984,7 +14981,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>12</v>
       </c>
@@ -15019,7 +15016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>12</v>
       </c>
@@ -15054,7 +15051,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>12</v>
       </c>
@@ -15092,7 +15089,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>12</v>
       </c>
@@ -15130,7 +15127,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>12</v>
       </c>
@@ -15168,7 +15165,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>12</v>
       </c>
@@ -15206,7 +15203,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>12</v>
       </c>
@@ -15244,7 +15241,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>12</v>
       </c>
@@ -15282,7 +15279,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>1283</v>
       </c>
@@ -15320,7 +15317,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>1283</v>
       </c>
@@ -15358,7 +15355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>1283</v>
       </c>
@@ -15396,7 +15393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>1283</v>
       </c>
@@ -15434,7 +15431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>1283</v>
       </c>
@@ -15472,7 +15469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>1283</v>
       </c>
@@ -15510,7 +15507,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>12</v>
       </c>
@@ -15548,7 +15545,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>12</v>
       </c>
@@ -15586,7 +15583,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>1320</v>
       </c>
@@ -15624,7 +15621,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>1320</v>
       </c>
@@ -15662,7 +15659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>12</v>
       </c>
@@ -15700,7 +15697,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>12</v>
       </c>
@@ -15738,7 +15735,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>12</v>
       </c>
@@ -15776,7 +15773,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>1348</v>
       </c>
@@ -15814,7 +15811,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>12</v>
       </c>
@@ -15852,7 +15849,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>1358</v>
       </c>
@@ -15890,7 +15887,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>12</v>
       </c>
@@ -15928,7 +15925,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>1370</v>
       </c>
@@ -15966,7 +15963,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>1370</v>
       </c>
@@ -16004,7 +16001,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>1370</v>
       </c>
@@ -16042,7 +16039,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>1370</v>
       </c>
@@ -16080,7 +16077,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>1370</v>
       </c>
@@ -16118,7 +16115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>12</v>
       </c>
@@ -16156,7 +16153,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>12</v>
       </c>
@@ -16194,7 +16191,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>12</v>
       </c>
@@ -16232,7 +16229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>12</v>
       </c>
@@ -16270,7 +16267,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>12</v>
       </c>
@@ -16308,7 +16305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>12</v>
       </c>
@@ -16346,7 +16343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>12</v>
       </c>
@@ -16384,7 +16381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>12</v>
       </c>
@@ -16422,7 +16419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>12</v>
       </c>
@@ -16460,7 +16457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>12</v>
       </c>
@@ -16498,7 +16495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>12</v>
       </c>
@@ -16536,7 +16533,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>894</v>
       </c>
@@ -16574,7 +16571,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>894</v>
       </c>
@@ -16612,7 +16609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>12</v>
       </c>
@@ -16650,7 +16647,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>12</v>
       </c>
@@ -16764,7 +16761,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>12</v>
       </c>
@@ -16802,7 +16799,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>12</v>
       </c>
@@ -16840,7 +16837,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>12</v>
       </c>
@@ -16878,7 +16875,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>12</v>
       </c>
@@ -16913,7 +16910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>12</v>
       </c>
@@ -16948,7 +16945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>12</v>
       </c>
@@ -16983,7 +16980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>12</v>
       </c>
@@ -17021,7 +17018,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>12</v>
       </c>
@@ -17059,7 +17056,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>12</v>
       </c>
@@ -17097,7 +17094,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>12</v>
       </c>
@@ -17135,7 +17132,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>12</v>
       </c>
@@ -17173,7 +17170,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>12</v>
       </c>
@@ -17211,7 +17208,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>12</v>
       </c>
@@ -17249,7 +17246,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>12</v>
       </c>
@@ -17287,7 +17284,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>12</v>
       </c>
@@ -17325,7 +17322,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>12</v>
       </c>
@@ -17363,7 +17360,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>12</v>
       </c>
@@ -17401,7 +17398,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>12</v>
       </c>
@@ -17439,7 +17436,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>12</v>
       </c>
@@ -17477,7 +17474,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>12</v>
       </c>
@@ -17515,7 +17512,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>12</v>
       </c>
@@ -17553,7 +17550,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>12</v>
       </c>
@@ -17591,7 +17588,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>12</v>
       </c>
@@ -17629,7 +17626,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>12</v>
       </c>
@@ -17667,7 +17664,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>12</v>
       </c>
@@ -17705,7 +17702,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>12</v>
       </c>
@@ -17743,7 +17740,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>12</v>
       </c>
@@ -17781,7 +17778,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>12</v>
       </c>
@@ -17819,7 +17816,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>12</v>
       </c>
@@ -17857,7 +17854,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>12</v>
       </c>
@@ -17895,7 +17892,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>12</v>
       </c>
@@ -17933,7 +17930,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>12</v>
       </c>
@@ -17971,7 +17968,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>12</v>
       </c>
@@ -18009,7 +18006,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>12</v>
       </c>
@@ -18047,7 +18044,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>12</v>
       </c>
@@ -18085,7 +18082,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>12</v>
       </c>
@@ -18123,7 +18120,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>12</v>
       </c>
@@ -18161,7 +18158,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>12</v>
       </c>
@@ -18199,7 +18196,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>12</v>
       </c>
@@ -18237,7 +18234,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>12</v>
       </c>
@@ -18275,7 +18272,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>12</v>
       </c>
@@ -18313,7 +18310,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>12</v>
       </c>
@@ -18351,7 +18348,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>12</v>
       </c>
@@ -18389,7 +18386,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>12</v>
       </c>
@@ -18427,7 +18424,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>12</v>
       </c>
@@ -18465,7 +18462,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>12</v>
       </c>
@@ -18503,7 +18500,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>12</v>
       </c>
@@ -18541,7 +18538,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>12</v>
       </c>
@@ -18579,7 +18576,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>12</v>
       </c>
@@ -18617,7 +18614,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>12</v>
       </c>
@@ -18655,7 +18652,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>12</v>
       </c>
@@ -18693,7 +18690,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>12</v>
       </c>
@@ -18731,7 +18728,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>12</v>
       </c>
@@ -18769,7 +18766,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>1736</v>
       </c>
@@ -18804,7 +18801,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>1736</v>
       </c>
@@ -18842,7 +18839,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>1736</v>
       </c>
@@ -18877,7 +18874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>12</v>
       </c>
@@ -18894,7 +18891,7 @@
         <v>1756</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>232</v>
@@ -18903,7 +18900,7 @@
         <v>1747</v>
       </c>
       <c r="I320" s="0" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="J320" s="0" t="s">
         <v>12</v>
@@ -18912,27 +18909,27 @@
         <v>108</v>
       </c>
       <c r="L320" s="0" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
+      <c r="B321" s="0" t="s">
         <v>1760</v>
       </c>
-      <c r="B321" s="0" t="s">
+      <c r="C321" s="0" t="s">
         <v>1761</v>
-      </c>
-      <c r="C321" s="0" t="s">
-        <v>1762</v>
       </c>
       <c r="D321" s="0" t="n">
         <v>1603</v>
       </c>
       <c r="E321" s="0" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F321" s="0" t="s">
         <v>1763</v>
-      </c>
-      <c r="F321" s="0" t="s">
-        <v>1764</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>855</v>
@@ -18950,24 +18947,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B322" s="0" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C322" s="0" t="s">
         <v>1765</v>
-      </c>
-      <c r="C322" s="0" t="s">
-        <v>1766</v>
       </c>
       <c r="D322" s="0" t="n">
         <v>1650</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>855</v>
@@ -18985,24 +18982,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B323" s="0" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C323" s="0" t="s">
         <v>1768</v>
-      </c>
-      <c r="C323" s="0" t="s">
-        <v>1769</v>
       </c>
       <c r="D323" s="0" t="n">
         <v>6184</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G323" s="0" t="s">
         <v>855</v>
@@ -19014,30 +19011,30 @@
         <v>12</v>
       </c>
       <c r="K323" s="0" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="L323" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B324" s="0" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C324" s="0" t="s">
         <v>1772</v>
-      </c>
-      <c r="C324" s="0" t="s">
-        <v>1773</v>
       </c>
       <c r="D324" s="0" t="n">
         <v>6185</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G324" s="0" t="s">
         <v>855</v>
@@ -19055,33 +19052,33 @@
         <v>59</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B325" s="0" t="s">
         <v>1775</v>
       </c>
-      <c r="B325" s="0" t="s">
+      <c r="C325" s="0" t="s">
         <v>1776</v>
-      </c>
-      <c r="C325" s="0" t="s">
-        <v>1777</v>
       </c>
       <c r="D325" s="0" t="n">
         <v>3703</v>
       </c>
       <c r="E325" s="0" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F325" s="0" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G325" s="0" t="s">
         <v>1778</v>
       </c>
-      <c r="F325" s="0" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G325" s="0" t="s">
+      <c r="H325" s="0" t="s">
         <v>1779</v>
       </c>
-      <c r="H325" s="0" t="s">
+      <c r="I325" s="0" t="s">
         <v>1780</v>
-      </c>
-      <c r="I325" s="0" t="s">
-        <v>1781</v>
       </c>
       <c r="J325" s="0" t="s">
         <v>12</v>
@@ -19090,36 +19087,36 @@
         <v>108</v>
       </c>
       <c r="L325" s="0" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B326" s="0" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="326" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B326" s="0" t="s">
+      <c r="C326" s="0" t="s">
         <v>1783</v>
-      </c>
-      <c r="C326" s="0" t="s">
-        <v>1784</v>
       </c>
       <c r="D326" s="0" t="n">
         <v>201595</v>
       </c>
       <c r="E326" s="0" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G326" s="0" t="s">
+        <v>1778</v>
+      </c>
+      <c r="H326" s="0" t="s">
         <v>1779</v>
       </c>
-      <c r="H326" s="0" t="s">
+      <c r="I326" s="0" t="s">
         <v>1780</v>
-      </c>
-      <c r="I326" s="0" t="s">
-        <v>1781</v>
       </c>
       <c r="J326" s="0" t="s">
         <v>12</v>
@@ -19128,36 +19125,36 @@
         <v>108</v>
       </c>
       <c r="L326" s="0" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B327" s="0" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C327" s="0" t="s">
         <v>1786</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>1787</v>
       </c>
       <c r="D327" s="0" t="n">
         <v>10195</v>
       </c>
       <c r="E327" s="0" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F327" s="0" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G327" s="0" t="s">
         <v>1788</v>
       </c>
-      <c r="F327" s="0" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G327" s="0" t="s">
+      <c r="H327" s="0" t="s">
         <v>1789</v>
       </c>
-      <c r="H327" s="0" t="s">
+      <c r="I327" s="0" t="s">
         <v>1790</v>
-      </c>
-      <c r="I327" s="0" t="s">
-        <v>1791</v>
       </c>
       <c r="J327" s="0" t="s">
         <v>12</v>
@@ -19166,36 +19163,36 @@
         <v>108</v>
       </c>
       <c r="L327" s="0" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B328" s="0" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="328" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B328" s="0" t="s">
+      <c r="C328" s="0" t="s">
         <v>1793</v>
-      </c>
-      <c r="C328" s="0" t="s">
-        <v>1794</v>
       </c>
       <c r="D328" s="0" t="n">
         <v>79796</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G328" s="0" t="s">
         <v>1367</v>
       </c>
       <c r="H328" s="0" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I328" s="0" t="s">
         <v>1796</v>
-      </c>
-      <c r="I328" s="0" t="s">
-        <v>1797</v>
       </c>
       <c r="J328" s="0" t="s">
         <v>12</v>
@@ -19204,36 +19201,36 @@
         <v>108</v>
       </c>
       <c r="L328" s="0" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B329" s="0" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="329" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B329" s="0" t="s">
+      <c r="C329" s="0" t="s">
         <v>1799</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>1800</v>
       </c>
       <c r="D329" s="0" t="n">
         <v>79087</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G329" s="0" t="s">
         <v>1334</v>
       </c>
       <c r="H329" s="0" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I329" s="0" t="s">
         <v>1802</v>
-      </c>
-      <c r="I329" s="0" t="s">
-        <v>1803</v>
       </c>
       <c r="J329" s="0" t="s">
         <v>12</v>
@@ -19242,36 +19239,36 @@
         <v>235</v>
       </c>
       <c r="L329" s="0" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B330" s="0" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="330" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B330" s="0" t="s">
+      <c r="C330" s="0" t="s">
         <v>1805</v>
-      </c>
-      <c r="C330" s="0" t="s">
-        <v>1806</v>
       </c>
       <c r="D330" s="0" t="n">
         <v>29929</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G330" s="0" t="s">
         <v>232</v>
       </c>
       <c r="H330" s="0" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I330" s="0" t="s">
         <v>1808</v>
-      </c>
-      <c r="I330" s="0" t="s">
-        <v>1809</v>
       </c>
       <c r="J330" s="0" t="s">
         <v>12</v>
@@ -19280,36 +19277,36 @@
         <v>108</v>
       </c>
       <c r="L330" s="0" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B331" s="0" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B331" s="0" t="s">
+      <c r="C331" s="0" t="s">
         <v>1811</v>
-      </c>
-      <c r="C331" s="0" t="s">
-        <v>1812</v>
       </c>
       <c r="D331" s="0" t="n">
         <v>79053</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G331" s="0" t="s">
         <v>232</v>
       </c>
       <c r="H331" s="0" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="I331" s="0" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="J331" s="0" t="s">
         <v>12</v>
@@ -19318,36 +19315,36 @@
         <v>108</v>
       </c>
       <c r="L331" s="0" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B332" s="0" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="332" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B332" s="0" t="s">
+      <c r="C332" s="0" t="s">
         <v>1816</v>
-      </c>
-      <c r="C332" s="0" t="s">
-        <v>1817</v>
       </c>
       <c r="D332" s="0" t="n">
         <v>84920</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G332" s="0" t="s">
         <v>232</v>
       </c>
       <c r="H332" s="0" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I332" s="0" t="s">
         <v>1819</v>
-      </c>
-      <c r="I332" s="0" t="s">
-        <v>1820</v>
       </c>
       <c r="J332" s="0" t="s">
         <v>12</v>
@@ -19356,36 +19353,36 @@
         <v>108</v>
       </c>
       <c r="L332" s="0" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B333" s="0" t="s">
         <v>1821</v>
       </c>
-    </row>
-    <row r="333" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B333" s="0" t="s">
+      <c r="C333" s="0" t="s">
         <v>1822</v>
-      </c>
-      <c r="C333" s="0" t="s">
-        <v>1823</v>
       </c>
       <c r="D333" s="0" t="n">
         <v>144245</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G333" s="0" t="s">
         <v>232</v>
       </c>
       <c r="H333" s="0" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I333" s="0" t="s">
         <v>1819</v>
-      </c>
-      <c r="I333" s="0" t="s">
-        <v>1820</v>
       </c>
       <c r="J333" s="0" t="s">
         <v>12</v>
@@ -19394,27 +19391,27 @@
         <v>1307</v>
       </c>
       <c r="L333" s="0" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B334" s="0" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C334" s="0" t="s">
         <v>1825</v>
-      </c>
-      <c r="C334" s="0" t="s">
-        <v>1826</v>
       </c>
       <c r="D334" s="0" t="n">
         <v>1798</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>191</v>
@@ -19423,7 +19420,7 @@
         <v>1747</v>
       </c>
       <c r="I334" s="0" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="J334" s="0" t="s">
         <v>12</v>
@@ -19432,36 +19429,36 @@
         <v>108</v>
       </c>
       <c r="L334" s="0" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+      <c r="B335" s="0" t="s">
         <v>1830</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="C335" s="0" t="s">
         <v>1831</v>
-      </c>
-      <c r="C335" s="0" t="s">
-        <v>1832</v>
       </c>
       <c r="D335" s="0" t="n">
         <v>79868</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>191</v>
       </c>
       <c r="H335" s="0" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="I335" s="0" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="J335" s="0" t="s">
         <v>12</v>
@@ -19470,74 +19467,74 @@
         <v>108</v>
       </c>
       <c r="L335" s="0" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B336" s="0" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="336" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B336" s="0" t="s">
+      <c r="C336" s="0" t="s">
         <v>1836</v>
-      </c>
-      <c r="C336" s="0" t="s">
-        <v>1837</v>
       </c>
       <c r="D336" s="0" t="n">
         <v>199857</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G336" s="0" t="s">
         <v>191</v>
       </c>
       <c r="H336" s="0" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="I336" s="0" t="s">
+        <v>1833</v>
+      </c>
+      <c r="J336" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K336" s="0" t="s">
+        <v>1838</v>
+      </c>
+      <c r="L336" s="0" t="s">
         <v>1834</v>
       </c>
-      <c r="J336" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K336" s="0" t="s">
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B337" s="0" t="s">
         <v>1839</v>
       </c>
-      <c r="L336" s="0" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B337" s="0" t="s">
+      <c r="C337" s="0" t="s">
         <v>1840</v>
-      </c>
-      <c r="C337" s="0" t="s">
-        <v>1841</v>
       </c>
       <c r="D337" s="0" t="n">
         <v>56052</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>1324</v>
       </c>
       <c r="H337" s="0" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="I337" s="0" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="J337" s="0" t="s">
         <v>12</v>
@@ -19546,74 +19543,74 @@
         <v>108</v>
       </c>
       <c r="L337" s="0" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B338" s="0" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B338" s="0" t="s">
+      <c r="C338" s="0" t="s">
         <v>1845</v>
-      </c>
-      <c r="C338" s="0" t="s">
-        <v>1846</v>
       </c>
       <c r="D338" s="0" t="n">
         <v>85365</v>
       </c>
       <c r="E338" s="0" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F338" s="0" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G338" s="0" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H338" s="0" t="s">
         <v>1847</v>
       </c>
-      <c r="F338" s="0" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G338" s="0" t="s">
-        <v>1789</v>
-      </c>
-      <c r="H338" s="0" t="s">
+      <c r="I338" s="0" t="s">
         <v>1848</v>
       </c>
-      <c r="I338" s="0" t="s">
+      <c r="J338" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K338" s="0" t="s">
         <v>1849</v>
       </c>
-      <c r="J338" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K338" s="0" t="s">
+      <c r="L338" s="0" t="s">
         <v>1850</v>
       </c>
-      <c r="L338" s="0" t="s">
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B339" s="0" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B339" s="0" t="s">
+      <c r="C339" s="0" t="s">
         <v>1852</v>
-      </c>
-      <c r="C339" s="0" t="s">
-        <v>1853</v>
       </c>
       <c r="D339" s="0" t="n">
         <v>440138</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>1367</v>
       </c>
       <c r="H339" s="0" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I339" s="0" t="s">
         <v>1855</v>
-      </c>
-      <c r="I339" s="0" t="s">
-        <v>1856</v>
       </c>
       <c r="J339" s="0" t="s">
         <v>12</v>
@@ -19622,30 +19619,30 @@
         <v>108</v>
       </c>
       <c r="L339" s="0" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" s="0" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B340" s="0" t="s">
+      <c r="C340" s="0" t="s">
         <v>1858</v>
-      </c>
-      <c r="C340" s="0" t="s">
-        <v>1859</v>
       </c>
       <c r="D340" s="0" t="n">
         <v>200810</v>
       </c>
       <c r="E340" s="0" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G340" s="0" t="s">
         <v>1860</v>
-      </c>
-      <c r="F340" s="0" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G340" s="0" t="s">
-        <v>1861</v>
       </c>
       <c r="H340" s="0" t="s">
         <v>59</v>
@@ -19660,27 +19657,27 @@
         <v>59</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B341" s="0" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C341" s="0" t="s">
         <v>1862</v>
-      </c>
-      <c r="C341" s="0" t="s">
-        <v>1863</v>
       </c>
       <c r="D341" s="0" t="n">
         <v>644974</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G341" s="0" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="H341" s="0" t="s">
         <v>59</v>
@@ -19695,33 +19692,33 @@
         <v>59</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B342" s="0" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C342" s="0" t="s">
         <v>1865</v>
-      </c>
-      <c r="C342" s="0" t="s">
-        <v>1866</v>
       </c>
       <c r="D342" s="0" t="n">
         <v>9469</v>
       </c>
       <c r="E342" s="0" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F342" s="0" t="s">
         <v>1867</v>
       </c>
-      <c r="F342" s="0" t="s">
+      <c r="G342" s="0" t="s">
         <v>1868</v>
       </c>
-      <c r="G342" s="0" t="s">
+      <c r="H342" s="0" t="s">
         <v>1869</v>
       </c>
-      <c r="H342" s="0" t="s">
+      <c r="I342" s="0" t="s">
         <v>1870</v>
-      </c>
-      <c r="I342" s="0" t="s">
-        <v>1871</v>
       </c>
       <c r="J342" s="0" t="s">
         <v>12</v>
@@ -19730,36 +19727,36 @@
         <v>265</v>
       </c>
       <c r="L342" s="0" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B343" s="0" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="343" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B343" s="0" t="s">
+      <c r="C343" s="0" t="s">
         <v>1873</v>
-      </c>
-      <c r="C343" s="0" t="s">
-        <v>1874</v>
       </c>
       <c r="D343" s="0" t="n">
         <v>56548</v>
       </c>
       <c r="E343" s="0" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F343" s="0" t="s">
         <v>1875</v>
       </c>
-      <c r="F343" s="0" t="s">
+      <c r="G343" s="0" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H343" s="0" t="s">
         <v>1876</v>
       </c>
-      <c r="G343" s="0" t="s">
-        <v>1869</v>
-      </c>
-      <c r="H343" s="0" t="s">
+      <c r="I343" s="0" t="s">
         <v>1877</v>
-      </c>
-      <c r="I343" s="0" t="s">
-        <v>1878</v>
       </c>
       <c r="J343" s="0" t="s">
         <v>12</v>
@@ -19768,36 +19765,36 @@
         <v>265</v>
       </c>
       <c r="L343" s="0" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="0" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B344" s="0" t="s">
+      <c r="C344" s="0" t="s">
         <v>1880</v>
-      </c>
-      <c r="C344" s="0" t="s">
-        <v>1881</v>
       </c>
       <c r="D344" s="0" t="n">
         <v>50515</v>
       </c>
       <c r="E344" s="0" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F344" s="0" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G344" s="0" t="s">
         <v>1882</v>
       </c>
-      <c r="F344" s="0" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G344" s="0" t="s">
+      <c r="H344" s="0" t="s">
         <v>1883</v>
       </c>
-      <c r="H344" s="0" t="s">
+      <c r="I344" s="0" t="s">
         <v>1884</v>
-      </c>
-      <c r="I344" s="0" t="s">
-        <v>1885</v>
       </c>
       <c r="J344" s="0" t="s">
         <v>12</v>
@@ -19806,36 +19803,36 @@
         <v>34</v>
       </c>
       <c r="L344" s="0" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B345" s="0" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B345" s="0" t="s">
+      <c r="C345" s="0" t="s">
         <v>1887</v>
-      </c>
-      <c r="C345" s="0" t="s">
-        <v>1888</v>
       </c>
       <c r="D345" s="0" t="n">
         <v>55501</v>
       </c>
       <c r="E345" s="0" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F345" s="0" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G345" s="0" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H345" s="0" t="s">
         <v>1889</v>
       </c>
-      <c r="F345" s="0" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G345" s="0" t="s">
-        <v>1883</v>
-      </c>
-      <c r="H345" s="0" t="s">
+      <c r="I345" s="0" t="s">
         <v>1890</v>
-      </c>
-      <c r="I345" s="0" t="s">
-        <v>1891</v>
       </c>
       <c r="J345" s="0" t="s">
         <v>12</v>
@@ -19844,36 +19841,36 @@
         <v>34</v>
       </c>
       <c r="L345" s="0" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B346" s="0" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B346" s="0" t="s">
+      <c r="C346" s="0" t="s">
         <v>1893</v>
-      </c>
-      <c r="C346" s="0" t="s">
-        <v>1894</v>
       </c>
       <c r="D346" s="0" t="n">
         <v>166012</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="G346" s="0" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H346" s="0" t="s">
         <v>1883</v>
       </c>
-      <c r="H346" s="0" t="s">
+      <c r="I346" s="0" t="s">
         <v>1884</v>
-      </c>
-      <c r="I346" s="0" t="s">
-        <v>1885</v>
       </c>
       <c r="J346" s="0" t="s">
         <v>12</v>
@@ -19882,36 +19879,36 @@
         <v>34</v>
       </c>
       <c r="L346" s="0" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B347" s="0" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C347" s="0" t="s">
         <v>1896</v>
-      </c>
-      <c r="C347" s="0" t="s">
-        <v>1897</v>
       </c>
       <c r="D347" s="0" t="n">
         <v>113189</v>
       </c>
       <c r="E347" s="0" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F347" s="0" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G347" s="0" t="s">
         <v>1898</v>
       </c>
-      <c r="F347" s="0" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G347" s="0" t="s">
+      <c r="H347" s="0" t="s">
         <v>1899</v>
       </c>
-      <c r="H347" s="0" t="s">
+      <c r="I347" s="0" t="s">
         <v>1900</v>
-      </c>
-      <c r="I347" s="0" t="s">
-        <v>1901</v>
       </c>
       <c r="J347" s="0" t="s">
         <v>12</v>
@@ -19920,36 +19917,36 @@
         <v>172</v>
       </c>
       <c r="L347" s="0" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B348" s="0" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B348" s="0" t="s">
+      <c r="C348" s="0" t="s">
         <v>1903</v>
-      </c>
-      <c r="C348" s="0" t="s">
-        <v>1904</v>
       </c>
       <c r="D348" s="0" t="n">
         <v>51363</v>
       </c>
       <c r="E348" s="0" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F348" s="0" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G348" s="0" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H348" s="0" t="s">
         <v>1905</v>
       </c>
-      <c r="F348" s="0" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G348" s="0" t="s">
-        <v>1899</v>
-      </c>
-      <c r="H348" s="0" t="s">
+      <c r="I348" s="0" t="s">
         <v>1906</v>
-      </c>
-      <c r="I348" s="0" t="s">
-        <v>1907</v>
       </c>
       <c r="J348" s="0" t="s">
         <v>12</v>
@@ -19958,36 +19955,36 @@
         <v>34</v>
       </c>
       <c r="L348" s="0" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B349" s="0" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B349" s="0" t="s">
+      <c r="C349" s="0" t="s">
         <v>1909</v>
-      </c>
-      <c r="C349" s="0" t="s">
-        <v>1910</v>
       </c>
       <c r="D349" s="0" t="n">
         <v>10090</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="G349" s="0" t="s">
         <v>1072</v>
       </c>
       <c r="H349" s="0" t="s">
+        <v>1911</v>
+      </c>
+      <c r="I349" s="0" t="s">
         <v>1912</v>
-      </c>
-      <c r="I349" s="0" t="s">
-        <v>1913</v>
       </c>
       <c r="J349" s="0" t="s">
         <v>12</v>
@@ -19996,36 +19993,36 @@
         <v>34</v>
       </c>
       <c r="L349" s="0" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B350" s="0" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B350" s="0" t="s">
+      <c r="C350" s="0" t="s">
         <v>1915</v>
-      </c>
-      <c r="C350" s="0" t="s">
-        <v>1916</v>
       </c>
       <c r="D350" s="0" t="n">
         <v>92126</v>
       </c>
       <c r="E350" s="0" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F350" s="0" t="s">
         <v>1917</v>
-      </c>
-      <c r="F350" s="0" t="s">
-        <v>1918</v>
       </c>
       <c r="G350" s="0" t="s">
         <v>97</v>
       </c>
       <c r="H350" s="0" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="I350" s="0" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="J350" s="0" t="s">
         <v>12</v>
@@ -20034,74 +20031,74 @@
         <v>34</v>
       </c>
       <c r="L350" s="0" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351" s="0" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B351" s="0" t="s">
+      <c r="C351" s="0" t="s">
         <v>1921</v>
-      </c>
-      <c r="C351" s="0" t="s">
-        <v>1922</v>
       </c>
       <c r="D351" s="0" t="n">
         <v>29940</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G351" s="0" t="s">
         <v>97</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="I351" s="0" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J351" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K351" s="0" t="s">
+        <v>1923</v>
+      </c>
+      <c r="L351" s="0" t="s">
         <v>1919</v>
       </c>
-      <c r="J351" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K351" s="0" t="s">
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B352" s="0" t="s">
         <v>1924</v>
       </c>
-      <c r="L351" s="0" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B352" s="0" t="s">
+      <c r="C352" s="0" t="s">
         <v>1925</v>
-      </c>
-      <c r="C352" s="0" t="s">
-        <v>1926</v>
       </c>
       <c r="D352" s="0" t="n">
         <v>2588</v>
       </c>
       <c r="E352" s="0" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F352" s="0" t="s">
         <v>1927</v>
       </c>
-      <c r="F352" s="0" t="s">
+      <c r="G352" s="0" t="s">
         <v>1928</v>
       </c>
-      <c r="G352" s="0" t="s">
+      <c r="H352" s="0" t="s">
         <v>1929</v>
       </c>
-      <c r="H352" s="0" t="s">
+      <c r="I352" s="0" t="s">
         <v>1930</v>
-      </c>
-      <c r="I352" s="0" t="s">
-        <v>1931</v>
       </c>
       <c r="J352" s="0" t="s">
         <v>12</v>
@@ -20110,74 +20107,74 @@
         <v>746</v>
       </c>
       <c r="L352" s="0" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" s="0" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B353" s="0" t="s">
+      <c r="C353" s="0" t="s">
         <v>1933</v>
-      </c>
-      <c r="C353" s="0" t="s">
-        <v>1934</v>
       </c>
       <c r="D353" s="0" t="n">
         <v>411</v>
       </c>
       <c r="E353" s="0" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F353" s="0" t="s">
         <v>1935</v>
-      </c>
-      <c r="F353" s="0" t="s">
-        <v>1936</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>1172</v>
       </c>
       <c r="H353" s="0" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I353" s="0" t="s">
         <v>1937</v>
       </c>
-      <c r="I353" s="0" t="s">
+      <c r="J353" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K353" s="0" t="s">
         <v>1938</v>
       </c>
-      <c r="J353" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K353" s="0" t="s">
+      <c r="L353" s="0" t="s">
         <v>1939</v>
       </c>
-      <c r="L353" s="0" t="s">
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B354" s="0" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="354" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B354" s="0" t="s">
+      <c r="C354" s="0" t="s">
         <v>1941</v>
-      </c>
-      <c r="C354" s="0" t="s">
-        <v>1942</v>
       </c>
       <c r="D354" s="0" t="n">
         <v>5351</v>
       </c>
       <c r="E354" s="0" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F354" s="0" t="s">
         <v>1943</v>
       </c>
-      <c r="F354" s="0" t="s">
+      <c r="G354" s="0" t="s">
         <v>1944</v>
       </c>
-      <c r="G354" s="0" t="s">
+      <c r="H354" s="0" t="s">
         <v>1945</v>
       </c>
-      <c r="H354" s="0" t="s">
+      <c r="I354" s="0" t="s">
         <v>1946</v>
-      </c>
-      <c r="I354" s="0" t="s">
-        <v>1947</v>
       </c>
       <c r="J354" s="0" t="s">
         <v>12</v>
@@ -20186,36 +20183,36 @@
         <v>755</v>
       </c>
       <c r="L354" s="0" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B355" s="0" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B355" s="0" t="s">
+      <c r="C355" s="0" t="s">
         <v>1949</v>
-      </c>
-      <c r="C355" s="0" t="s">
-        <v>1950</v>
       </c>
       <c r="D355" s="0" t="n">
         <v>5352</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F355" s="0" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G355" s="0" t="s">
         <v>1944</v>
       </c>
-      <c r="G355" s="0" t="s">
+      <c r="H355" s="0" t="s">
         <v>1945</v>
       </c>
-      <c r="H355" s="0" t="s">
+      <c r="I355" s="0" t="s">
         <v>1946</v>
-      </c>
-      <c r="I355" s="0" t="s">
-        <v>1947</v>
       </c>
       <c r="J355" s="0" t="s">
         <v>12</v>
@@ -20224,74 +20221,74 @@
         <v>755</v>
       </c>
       <c r="L355" s="0" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B356" s="0" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C356" s="0" t="s">
         <v>1952</v>
-      </c>
-      <c r="C356" s="0" t="s">
-        <v>1953</v>
       </c>
       <c r="D356" s="0" t="n">
         <v>8985</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G356" s="0" t="s">
         <v>271</v>
       </c>
       <c r="H356" s="0" t="s">
+        <v>1954</v>
+      </c>
+      <c r="I356" s="0" t="s">
         <v>1955</v>
       </c>
-      <c r="I356" s="0" t="s">
+      <c r="J356" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K356" s="0" t="s">
         <v>1956</v>
       </c>
-      <c r="J356" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K356" s="0" t="s">
+      <c r="L356" s="0" t="s">
         <v>1957</v>
       </c>
-      <c r="L356" s="0" t="s">
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B357" s="0" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B357" s="0" t="s">
+      <c r="C357" s="0" t="s">
         <v>1959</v>
-      </c>
-      <c r="C357" s="0" t="s">
-        <v>1960</v>
       </c>
       <c r="D357" s="0" t="n">
         <v>79709</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G357" s="0" t="s">
         <v>271</v>
       </c>
       <c r="H357" s="0" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="I357" s="0" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="J357" s="0" t="s">
         <v>12</v>
@@ -20300,36 +20297,36 @@
         <v>235</v>
       </c>
       <c r="L357" s="0" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B358" s="0" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="358" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B358" s="0" t="s">
+      <c r="C358" s="0" t="s">
         <v>1964</v>
-      </c>
-      <c r="C358" s="0" t="s">
-        <v>1965</v>
       </c>
       <c r="D358" s="0" t="n">
         <v>23127</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G358" s="0" t="s">
         <v>271</v>
       </c>
       <c r="H358" s="0" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="I358" s="0" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="J358" s="0" t="s">
         <v>12</v>
@@ -20338,36 +20335,36 @@
         <v>235</v>
       </c>
       <c r="L358" s="0" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B359" s="0" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C359" s="0" t="s">
         <v>1967</v>
-      </c>
-      <c r="C359" s="0" t="s">
-        <v>1968</v>
       </c>
       <c r="D359" s="0" t="n">
         <v>80162</v>
       </c>
       <c r="E359" s="0" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F359" s="0" t="s">
         <v>1969</v>
-      </c>
-      <c r="F359" s="0" t="s">
-        <v>1970</v>
       </c>
       <c r="G359" s="0" t="s">
         <v>752</v>
       </c>
       <c r="H359" s="0" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="I359" s="0" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="J359" s="0" t="s">
         <v>12</v>
@@ -20376,36 +20373,36 @@
         <v>71</v>
       </c>
       <c r="L359" s="0" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B360" s="0" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B360" s="0" t="s">
+      <c r="C360" s="0" t="s">
         <v>1973</v>
-      </c>
-      <c r="C360" s="0" t="s">
-        <v>1974</v>
       </c>
       <c r="D360" s="0" t="n">
         <v>124872</v>
       </c>
       <c r="E360" s="0" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F360" s="0" t="s">
         <v>1975</v>
-      </c>
-      <c r="F360" s="0" t="s">
-        <v>1976</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>1595</v>
       </c>
       <c r="H360" s="0" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I360" s="0" t="s">
         <v>1977</v>
-      </c>
-      <c r="I360" s="0" t="s">
-        <v>1978</v>
       </c>
       <c r="J360" s="0" t="s">
         <v>12</v>
@@ -20414,36 +20411,36 @@
         <v>34</v>
       </c>
       <c r="L360" s="0" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B361" s="0" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B361" s="0" t="s">
+      <c r="C361" s="0" t="s">
         <v>1980</v>
-      </c>
-      <c r="C361" s="0" t="s">
-        <v>1981</v>
       </c>
       <c r="D361" s="0" t="n">
         <v>283358</v>
       </c>
       <c r="E361" s="0" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F361" s="0" t="s">
         <v>1982</v>
       </c>
-      <c r="F361" s="0" t="s">
+      <c r="G361" s="0" t="s">
         <v>1983</v>
-      </c>
-      <c r="G361" s="0" t="s">
-        <v>1984</v>
       </c>
       <c r="H361" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I361" s="0" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="J361" s="0" t="s">
         <v>12</v>
@@ -20452,36 +20449,36 @@
         <v>34</v>
       </c>
       <c r="L361" s="0" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B362" s="0" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B362" s="0" t="s">
+      <c r="C362" s="0" t="s">
         <v>1987</v>
-      </c>
-      <c r="C362" s="0" t="s">
-        <v>1988</v>
       </c>
       <c r="D362" s="0" t="n">
         <v>338707</v>
       </c>
       <c r="E362" s="0" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F362" s="0" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G362" s="0" t="s">
         <v>1983</v>
-      </c>
-      <c r="G362" s="0" t="s">
-        <v>1984</v>
       </c>
       <c r="H362" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I362" s="0" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="J362" s="0" t="s">
         <v>12</v>
@@ -20490,112 +20487,112 @@
         <v>34</v>
       </c>
       <c r="L362" s="0" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B363" s="0" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C363" s="0" t="s">
         <v>1990</v>
-      </c>
-      <c r="C363" s="0" t="s">
-        <v>1991</v>
       </c>
       <c r="D363" s="0" t="n">
         <v>64377</v>
       </c>
       <c r="E363" s="0" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F363" s="0" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G363" s="0" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H363" s="0" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I363" s="0" t="s">
         <v>1992</v>
       </c>
-      <c r="F363" s="0" t="s">
-        <v>1983</v>
-      </c>
-      <c r="G363" s="0" t="s">
-        <v>1899</v>
-      </c>
-      <c r="H363" s="0" t="s">
-        <v>1985</v>
-      </c>
-      <c r="I363" s="0" t="s">
+      <c r="J363" s="0" t="s">
         <v>1993</v>
-      </c>
-      <c r="J363" s="0" t="s">
-        <v>1994</v>
       </c>
       <c r="K363" s="0" t="s">
         <v>34</v>
       </c>
       <c r="L363" s="0" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B364" s="0" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B364" s="0" t="s">
+      <c r="C364" s="0" t="s">
         <v>1996</v>
-      </c>
-      <c r="C364" s="0" t="s">
-        <v>1997</v>
       </c>
       <c r="D364" s="0" t="n">
         <v>83539</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G364" s="0" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="I364" s="0" t="s">
+        <v>1992</v>
+      </c>
+      <c r="J364" s="0" t="s">
         <v>1993</v>
-      </c>
-      <c r="J364" s="0" t="s">
-        <v>1994</v>
       </c>
       <c r="K364" s="0" t="s">
         <v>399</v>
       </c>
       <c r="L364" s="0" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B365" s="0" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C365" s="0" t="s">
         <v>1999</v>
-      </c>
-      <c r="C365" s="0" t="s">
-        <v>2000</v>
       </c>
       <c r="D365" s="0" t="n">
         <v>9486</v>
       </c>
       <c r="E365" s="0" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F365" s="0" t="s">
         <v>2001</v>
       </c>
-      <c r="F365" s="0" t="s">
+      <c r="G365" s="0" t="s">
         <v>2002</v>
       </c>
-      <c r="G365" s="0" t="s">
+      <c r="H365" s="0" t="s">
         <v>2003</v>
       </c>
-      <c r="H365" s="0" t="s">
+      <c r="I365" s="0" t="s">
         <v>2004</v>
-      </c>
-      <c r="I365" s="0" t="s">
-        <v>2005</v>
       </c>
       <c r="J365" s="0" t="s">
         <v>12</v>
@@ -20604,188 +20601,188 @@
         <v>34</v>
       </c>
       <c r="L365" s="0" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B366" s="0" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B366" s="0" t="s">
+      <c r="C366" s="0" t="s">
         <v>2007</v>
-      </c>
-      <c r="C366" s="0" t="s">
-        <v>2008</v>
       </c>
       <c r="D366" s="0" t="n">
         <v>2525</v>
       </c>
       <c r="E366" s="0" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F366" s="0" t="s">
         <v>2009</v>
       </c>
-      <c r="F366" s="0" t="s">
+      <c r="G366" s="0" t="s">
         <v>2010</v>
       </c>
-      <c r="G366" s="0" t="s">
+      <c r="H366" s="0" t="s">
         <v>2011</v>
       </c>
-      <c r="H366" s="0" t="s">
+      <c r="I366" s="0" t="s">
         <v>2012</v>
       </c>
-      <c r="I366" s="0" t="s">
+      <c r="J366" s="0" t="s">
         <v>2013</v>
-      </c>
-      <c r="J366" s="0" t="s">
-        <v>2014</v>
       </c>
       <c r="K366" s="0" t="s">
         <v>172</v>
       </c>
       <c r="L366" s="0" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B367" s="0" t="s">
         <v>2015</v>
       </c>
-    </row>
-    <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B367" s="0" t="s">
+      <c r="C367" s="0" t="s">
         <v>2016</v>
-      </c>
-      <c r="C367" s="0" t="s">
-        <v>2017</v>
       </c>
       <c r="D367" s="0" t="n">
         <v>2526</v>
       </c>
       <c r="E367" s="0" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F367" s="0" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G367" s="0" t="s">
         <v>2018</v>
       </c>
-      <c r="F367" s="0" t="s">
-        <v>2010</v>
-      </c>
-      <c r="G367" s="0" t="s">
+      <c r="H367" s="0" t="s">
         <v>2019</v>
       </c>
-      <c r="H367" s="0" t="s">
+      <c r="I367" s="0" t="s">
         <v>2020</v>
       </c>
-      <c r="I367" s="0" t="s">
+      <c r="J367" s="0" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K367" s="0" t="s">
         <v>2021</v>
       </c>
-      <c r="J367" s="0" t="s">
-        <v>2014</v>
-      </c>
-      <c r="K367" s="0" t="s">
+      <c r="L367" s="0" t="s">
         <v>2022</v>
       </c>
-      <c r="L367" s="0" t="s">
+    </row>
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B368" s="0" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B368" s="0" t="s">
+      <c r="C368" s="0" t="s">
         <v>2024</v>
-      </c>
-      <c r="C368" s="0" t="s">
-        <v>2025</v>
       </c>
       <c r="D368" s="0" t="n">
         <v>2527</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F368" s="0" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G368" s="0" t="s">
         <v>2010</v>
       </c>
-      <c r="G368" s="0" t="s">
+      <c r="H368" s="0" t="s">
         <v>2011</v>
       </c>
-      <c r="H368" s="0" t="s">
+      <c r="I368" s="0" t="s">
         <v>2012</v>
       </c>
-      <c r="I368" s="0" t="s">
+      <c r="J368" s="0" t="s">
         <v>2013</v>
-      </c>
-      <c r="J368" s="0" t="s">
-        <v>2014</v>
       </c>
       <c r="K368" s="0" t="s">
         <v>34</v>
       </c>
       <c r="L368" s="0" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B369" s="0" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C369" s="0" t="s">
         <v>2027</v>
-      </c>
-      <c r="C369" s="0" t="s">
-        <v>2028</v>
       </c>
       <c r="D369" s="0" t="n">
         <v>2528</v>
       </c>
       <c r="E369" s="0" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F369" s="0" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G369" s="0" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H369" s="0" t="s">
         <v>2029</v>
       </c>
-      <c r="F369" s="0" t="s">
-        <v>2010</v>
-      </c>
-      <c r="G369" s="0" t="s">
-        <v>2019</v>
-      </c>
-      <c r="H369" s="0" t="s">
+      <c r="I369" s="0" t="s">
         <v>2030</v>
       </c>
-      <c r="I369" s="0" t="s">
+      <c r="J369" s="0" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K369" s="0" t="s">
         <v>2031</v>
       </c>
-      <c r="J369" s="0" t="s">
-        <v>2014</v>
-      </c>
-      <c r="K369" s="0" t="s">
+      <c r="L369" s="0" t="s">
         <v>2032</v>
       </c>
-      <c r="L369" s="0" t="s">
+    </row>
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B370" s="0" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="370" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B370" s="0" t="s">
+      <c r="C370" s="0" t="s">
         <v>2034</v>
-      </c>
-      <c r="C370" s="0" t="s">
-        <v>2035</v>
       </c>
       <c r="D370" s="0" t="n">
         <v>2529</v>
       </c>
       <c r="E370" s="0" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F370" s="0" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G370" s="0" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H370" s="0" t="s">
         <v>2036</v>
       </c>
-      <c r="F370" s="0" t="s">
-        <v>2010</v>
-      </c>
-      <c r="G370" s="0" t="s">
-        <v>2019</v>
-      </c>
-      <c r="H370" s="0" t="s">
+      <c r="I370" s="0" t="s">
         <v>2037</v>
-      </c>
-      <c r="I370" s="0" t="s">
-        <v>2038</v>
       </c>
       <c r="J370" s="0" t="s">
         <v>12</v>
@@ -20794,68 +20791,68 @@
         <v>265</v>
       </c>
       <c r="L370" s="0" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B371" s="0" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B371" s="0" t="s">
+      <c r="C371" s="0" t="s">
         <v>2040</v>
-      </c>
-      <c r="C371" s="0" t="s">
-        <v>2041</v>
       </c>
       <c r="D371" s="0" t="n">
         <v>10690</v>
       </c>
       <c r="E371" s="0" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F371" s="0" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G371" s="0" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H371" s="0" t="s">
         <v>2042</v>
       </c>
-      <c r="F371" s="0" t="s">
-        <v>2010</v>
-      </c>
-      <c r="G371" s="0" t="s">
-        <v>2019</v>
-      </c>
-      <c r="H371" s="0" t="s">
+      <c r="I371" s="0" t="s">
         <v>2043</v>
       </c>
-      <c r="I371" s="0" t="s">
-        <v>2044</v>
-      </c>
       <c r="J371" s="0" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="K371" s="0" t="s">
         <v>265</v>
       </c>
       <c r="L371" s="0" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B372" s="0" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B372" s="0" t="s">
+      <c r="C372" s="0" t="s">
         <v>2046</v>
-      </c>
-      <c r="C372" s="0" t="s">
-        <v>2047</v>
       </c>
       <c r="D372" s="0" t="n">
         <v>84750</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G372" s="0" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="H372" s="0" t="s">
         <v>59</v>
@@ -20867,33 +20864,33 @@
         <v>12</v>
       </c>
       <c r="K372" s="0" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="L372" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B373" s="0" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C373" s="0" t="s">
         <v>2050</v>
-      </c>
-      <c r="C373" s="0" t="s">
-        <v>2051</v>
       </c>
       <c r="D373" s="0" t="n">
         <v>170384</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G373" s="0" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="H373" s="0" t="s">
         <v>59</v>
@@ -20911,33 +20908,33 @@
         <v>59</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B374" s="0" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C374" s="0" t="s">
         <v>2053</v>
-      </c>
-      <c r="C374" s="0" t="s">
-        <v>2054</v>
       </c>
       <c r="D374" s="0" t="n">
         <v>2523</v>
       </c>
       <c r="E374" s="0" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F374" s="0" t="s">
         <v>2055</v>
       </c>
-      <c r="F374" s="0" t="s">
+      <c r="G374" s="0" t="s">
         <v>2056</v>
       </c>
-      <c r="G374" s="0" t="s">
+      <c r="H374" s="0" t="s">
         <v>2057</v>
       </c>
-      <c r="H374" s="0" t="s">
+      <c r="I374" s="0" t="s">
         <v>2058</v>
-      </c>
-      <c r="I374" s="0" t="s">
-        <v>2059</v>
       </c>
       <c r="J374" s="0" t="s">
         <v>12</v>
@@ -20946,36 +20943,36 @@
         <v>316</v>
       </c>
       <c r="L374" s="0" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B375" s="0" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="375" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B375" s="0" t="s">
+      <c r="C375" s="0" t="s">
         <v>2061</v>
-      </c>
-      <c r="C375" s="0" t="s">
-        <v>2062</v>
       </c>
       <c r="D375" s="0" t="n">
         <v>2524</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F375" s="0" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G375" s="0" t="s">
         <v>2056</v>
       </c>
-      <c r="G375" s="0" t="s">
+      <c r="H375" s="0" t="s">
         <v>2057</v>
       </c>
-      <c r="H375" s="0" t="s">
+      <c r="I375" s="0" t="s">
         <v>2058</v>
-      </c>
-      <c r="I375" s="0" t="s">
-        <v>2059</v>
       </c>
       <c r="J375" s="0" t="s">
         <v>12</v>
@@ -20984,74 +20981,74 @@
         <v>172</v>
       </c>
       <c r="L375" s="0" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B376" s="0" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C376" s="0" t="s">
         <v>2064</v>
-      </c>
-      <c r="C376" s="0" t="s">
-        <v>2065</v>
       </c>
       <c r="D376" s="0" t="n">
         <v>6482</v>
       </c>
       <c r="E376" s="0" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F376" s="0" t="s">
         <v>2066</v>
       </c>
-      <c r="F376" s="0" t="s">
+      <c r="G376" s="0" t="s">
         <v>2067</v>
       </c>
-      <c r="G376" s="0" t="s">
+      <c r="H376" s="0" t="s">
         <v>2068</v>
       </c>
-      <c r="H376" s="0" t="s">
+      <c r="I376" s="0" t="s">
         <v>2069</v>
       </c>
-      <c r="I376" s="0" t="s">
+      <c r="J376" s="0" t="s">
         <v>2070</v>
       </c>
-      <c r="J376" s="0" t="s">
+      <c r="K376" s="0" t="s">
         <v>2071</v>
       </c>
-      <c r="K376" s="0" t="s">
+      <c r="L376" s="0" t="s">
         <v>2072</v>
       </c>
-      <c r="L376" s="0" t="s">
+    </row>
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B377" s="0" t="s">
         <v>2073</v>
       </c>
-    </row>
-    <row r="377" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B377" s="0" t="s">
+      <c r="C377" s="0" t="s">
         <v>2074</v>
-      </c>
-      <c r="C377" s="0" t="s">
-        <v>2075</v>
       </c>
       <c r="D377" s="0" t="n">
         <v>55808</v>
       </c>
       <c r="E377" s="0" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F377" s="0" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G377" s="0" t="s">
         <v>2076</v>
       </c>
-      <c r="F377" s="0" t="s">
-        <v>2067</v>
-      </c>
-      <c r="G377" s="0" t="s">
+      <c r="H377" s="0" t="s">
         <v>2077</v>
       </c>
-      <c r="H377" s="0" t="s">
+      <c r="I377" s="0" t="s">
         <v>2078</v>
-      </c>
-      <c r="I377" s="0" t="s">
-        <v>2079</v>
       </c>
       <c r="J377" s="0" t="s">
         <v>12</v>
@@ -21060,36 +21057,36 @@
         <v>34</v>
       </c>
       <c r="L377" s="0" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B378" s="0" t="s">
         <v>2080</v>
       </c>
-    </row>
-    <row r="378" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B378" s="0" t="s">
+      <c r="C378" s="0" t="s">
         <v>2081</v>
-      </c>
-      <c r="C378" s="0" t="s">
-        <v>2082</v>
       </c>
       <c r="D378" s="0" t="n">
         <v>10610</v>
       </c>
       <c r="E378" s="0" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F378" s="0" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="G378" s="0" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H378" s="0" t="s">
         <v>2077</v>
       </c>
-      <c r="H378" s="0" t="s">
+      <c r="I378" s="0" t="s">
         <v>2078</v>
-      </c>
-      <c r="I378" s="0" t="s">
-        <v>2079</v>
       </c>
       <c r="J378" s="0" t="s">
         <v>12</v>
@@ -21098,36 +21095,36 @@
         <v>34</v>
       </c>
       <c r="L378" s="0" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B379" s="0" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C379" s="0" t="s">
         <v>2084</v>
-      </c>
-      <c r="C379" s="0" t="s">
-        <v>2085</v>
       </c>
       <c r="D379" s="0" t="n">
         <v>338596</v>
       </c>
       <c r="E379" s="0" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F379" s="0" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G379" s="0" t="s">
         <v>2086</v>
       </c>
-      <c r="F379" s="0" t="s">
-        <v>2067</v>
-      </c>
-      <c r="G379" s="0" t="s">
+      <c r="H379" s="0" t="s">
         <v>2087</v>
       </c>
-      <c r="H379" s="0" t="s">
+      <c r="I379" s="0" t="s">
         <v>2088</v>
-      </c>
-      <c r="I379" s="0" t="s">
-        <v>2089</v>
       </c>
       <c r="J379" s="0" t="s">
         <v>12</v>
@@ -21136,36 +21133,36 @@
         <v>34</v>
       </c>
       <c r="L379" s="0" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="0" t="s">
         <v>2090</v>
       </c>
-    </row>
-    <row r="380" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B380" s="0" t="s">
+      <c r="C380" s="0" t="s">
         <v>2091</v>
-      </c>
-      <c r="C380" s="0" t="s">
-        <v>2092</v>
       </c>
       <c r="D380" s="0" t="n">
         <v>6480</v>
       </c>
       <c r="E380" s="0" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F380" s="0" t="s">
         <v>2093</v>
       </c>
-      <c r="F380" s="0" t="s">
-        <v>2094</v>
-      </c>
       <c r="G380" s="0" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="H380" s="0" t="s">
         <v>28</v>
       </c>
       <c r="I380" s="0" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="J380" s="0" t="s">
         <v>12</v>
@@ -21174,36 +21171,36 @@
         <v>399</v>
       </c>
       <c r="L380" s="0" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B381" s="0" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="381" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B381" s="0" t="s">
+      <c r="C381" s="0" t="s">
         <v>2097</v>
-      </c>
-      <c r="C381" s="0" t="s">
-        <v>2098</v>
       </c>
       <c r="D381" s="0" t="n">
         <v>84620</v>
       </c>
       <c r="E381" s="0" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F381" s="0" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G381" s="0" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H381" s="0" t="s">
         <v>2099</v>
       </c>
-      <c r="F381" s="0" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G381" s="0" t="s">
-        <v>2077</v>
-      </c>
-      <c r="H381" s="0" t="s">
+      <c r="I381" s="0" t="s">
         <v>2100</v>
-      </c>
-      <c r="I381" s="0" t="s">
-        <v>2101</v>
       </c>
       <c r="J381" s="0" t="s">
         <v>12</v>
@@ -21212,36 +21209,36 @@
         <v>34</v>
       </c>
       <c r="L381" s="0" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B382" s="0" t="s">
         <v>2102</v>
       </c>
-    </row>
-    <row r="382" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B382" s="0" t="s">
+      <c r="C382" s="0" t="s">
         <v>2103</v>
-      </c>
-      <c r="C382" s="0" t="s">
-        <v>2104</v>
       </c>
       <c r="D382" s="0" t="n">
         <v>6487</v>
       </c>
       <c r="E382" s="0" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F382" s="0" t="s">
         <v>2105</v>
       </c>
-      <c r="F382" s="0" t="s">
+      <c r="G382" s="0" t="s">
+        <v>2067</v>
+      </c>
+      <c r="H382" s="0" t="s">
         <v>2106</v>
       </c>
-      <c r="G382" s="0" t="s">
-        <v>2068</v>
-      </c>
-      <c r="H382" s="0" t="s">
+      <c r="I382" s="0" t="s">
         <v>2107</v>
-      </c>
-      <c r="I382" s="0" t="s">
-        <v>2108</v>
       </c>
       <c r="J382" s="0" t="s">
         <v>12</v>
@@ -21250,36 +21247,36 @@
         <v>399</v>
       </c>
       <c r="L382" s="0" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B383" s="0" t="s">
         <v>2109</v>
       </c>
-    </row>
-    <row r="383" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B383" s="0" t="s">
+      <c r="C383" s="0" t="s">
         <v>2110</v>
-      </c>
-      <c r="C383" s="0" t="s">
-        <v>2111</v>
       </c>
       <c r="D383" s="0" t="n">
         <v>6484</v>
       </c>
       <c r="E383" s="0" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F383" s="0" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G383" s="0" t="s">
+        <v>2067</v>
+      </c>
+      <c r="H383" s="0" t="s">
         <v>2112</v>
       </c>
-      <c r="F383" s="0" t="s">
-        <v>2106</v>
-      </c>
-      <c r="G383" s="0" t="s">
-        <v>2068</v>
-      </c>
-      <c r="H383" s="0" t="s">
+      <c r="I383" s="0" t="s">
         <v>2113</v>
-      </c>
-      <c r="I383" s="0" t="s">
-        <v>2114</v>
       </c>
       <c r="J383" s="0" t="s">
         <v>12</v>
@@ -21288,36 +21285,36 @@
         <v>399</v>
       </c>
       <c r="L383" s="0" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B384" s="0" t="s">
         <v>2115</v>
       </c>
-    </row>
-    <row r="384" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B384" s="0" t="s">
+      <c r="C384" s="0" t="s">
         <v>2116</v>
-      </c>
-      <c r="C384" s="0" t="s">
-        <v>2117</v>
       </c>
       <c r="D384" s="0" t="n">
         <v>10402</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="F384" s="0" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G384" s="0" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="H384" s="0" t="s">
         <v>28</v>
       </c>
       <c r="I384" s="0" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="J384" s="0" t="s">
         <v>12</v>
@@ -21326,264 +21323,264 @@
         <v>172</v>
       </c>
       <c r="L384" s="0" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B385" s="0" t="s">
         <v>2119</v>
       </c>
-    </row>
-    <row r="385" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B385" s="0" t="s">
+      <c r="C385" s="0" t="s">
         <v>2120</v>
-      </c>
-      <c r="C385" s="0" t="s">
-        <v>2121</v>
       </c>
       <c r="D385" s="0" t="n">
         <v>8128</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G385" s="0" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="H385" s="0" t="s">
         <v>739</v>
       </c>
       <c r="I385" s="0" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J385" s="0" t="s">
         <v>2123</v>
       </c>
-      <c r="J385" s="0" t="s">
+      <c r="K385" s="0" t="s">
         <v>2124</v>
       </c>
-      <c r="K385" s="0" t="s">
+      <c r="L385" s="0" t="s">
         <v>2125</v>
       </c>
-      <c r="L385" s="0" t="s">
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B386" s="0" t="s">
         <v>2126</v>
       </c>
-    </row>
-    <row r="386" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B386" s="0" t="s">
+      <c r="C386" s="0" t="s">
         <v>2127</v>
-      </c>
-      <c r="C386" s="0" t="s">
-        <v>2128</v>
       </c>
       <c r="D386" s="0" t="n">
         <v>7903</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="F386" s="0" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G386" s="0" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="H386" s="0" t="s">
         <v>739</v>
       </c>
       <c r="I386" s="0" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J386" s="0" t="s">
         <v>2123</v>
-      </c>
-      <c r="J386" s="0" t="s">
-        <v>2124</v>
       </c>
       <c r="K386" s="0" t="s">
         <v>34</v>
       </c>
       <c r="L386" s="0" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B387" s="0" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C387" s="0" t="s">
         <v>2130</v>
-      </c>
-      <c r="C387" s="0" t="s">
-        <v>2131</v>
       </c>
       <c r="D387" s="0" t="n">
         <v>27087</v>
       </c>
       <c r="E387" s="0" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F387" s="0" t="s">
         <v>2132</v>
       </c>
-      <c r="F387" s="0" t="s">
+      <c r="G387" s="0" t="s">
         <v>2133</v>
-      </c>
-      <c r="G387" s="0" t="s">
-        <v>2134</v>
       </c>
       <c r="H387" s="0" t="s">
         <v>28</v>
       </c>
       <c r="I387" s="0" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J387" s="0" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="K387" s="0" t="s">
         <v>399</v>
       </c>
       <c r="L387" s="0" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B388" s="0" t="s">
         <v>2136</v>
       </c>
-    </row>
-    <row r="388" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B388" s="0" t="s">
+      <c r="C388" s="0" t="s">
         <v>2137</v>
-      </c>
-      <c r="C388" s="0" t="s">
-        <v>2138</v>
       </c>
       <c r="D388" s="0" t="n">
         <v>135152</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F388" s="0" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G388" s="0" t="s">
         <v>2133</v>
-      </c>
-      <c r="G388" s="0" t="s">
-        <v>2134</v>
       </c>
       <c r="H388" s="0" t="s">
         <v>28</v>
       </c>
       <c r="I388" s="0" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J388" s="0" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="K388" s="0" t="s">
         <v>34</v>
       </c>
       <c r="L388" s="0" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B389" s="0" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C389" s="0" t="s">
         <v>2140</v>
-      </c>
-      <c r="C389" s="0" t="s">
-        <v>2141</v>
       </c>
       <c r="D389" s="0" t="n">
         <v>256435</v>
       </c>
       <c r="E389" s="0" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F389" s="0" t="s">
         <v>2142</v>
       </c>
-      <c r="F389" s="0" t="s">
+      <c r="G389" s="0" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H389" s="0" t="s">
         <v>2143</v>
       </c>
-      <c r="G389" s="0" t="s">
-        <v>2077</v>
-      </c>
-      <c r="H389" s="0" t="s">
+      <c r="I389" s="0" t="s">
         <v>2144</v>
       </c>
-      <c r="I389" s="0" t="s">
+      <c r="J389" s="0" t="s">
         <v>2145</v>
-      </c>
-      <c r="J389" s="0" t="s">
-        <v>2146</v>
       </c>
       <c r="K389" s="0" t="s">
         <v>39</v>
       </c>
       <c r="L389" s="0" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B390" s="0" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="390" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B390" s="0" t="s">
+      <c r="C390" s="0" t="s">
         <v>2148</v>
-      </c>
-      <c r="C390" s="0" t="s">
-        <v>2149</v>
       </c>
       <c r="D390" s="0" t="n">
         <v>27090</v>
       </c>
       <c r="E390" s="0" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="F390" s="0" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G390" s="0" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H390" s="0" t="s">
         <v>2143</v>
       </c>
-      <c r="G390" s="0" t="s">
-        <v>2077</v>
-      </c>
-      <c r="H390" s="0" t="s">
+      <c r="I390" s="0" t="s">
         <v>2144</v>
       </c>
-      <c r="I390" s="0" t="s">
+      <c r="J390" s="0" t="s">
         <v>2145</v>
-      </c>
-      <c r="J390" s="0" t="s">
-        <v>2146</v>
       </c>
       <c r="K390" s="0" t="s">
         <v>34</v>
       </c>
       <c r="L390" s="0" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B391" s="0" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C391" s="0" t="s">
         <v>2151</v>
-      </c>
-      <c r="C391" s="0" t="s">
-        <v>2152</v>
       </c>
       <c r="D391" s="0" t="n">
         <v>51046</v>
       </c>
       <c r="E391" s="0" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F391" s="0" t="s">
         <v>2153</v>
       </c>
-      <c r="F391" s="0" t="s">
-        <v>2154</v>
-      </c>
       <c r="G391" s="0" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="H391" s="0" t="s">
         <v>739</v>
       </c>
       <c r="I391" s="0" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="J391" s="0" t="s">
         <v>12</v>
@@ -21592,36 +21589,36 @@
         <v>34</v>
       </c>
       <c r="L391" s="0" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B392" s="0" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C392" s="0" t="s">
         <v>2155</v>
-      </c>
-      <c r="C392" s="0" t="s">
-        <v>2156</v>
       </c>
       <c r="D392" s="0" t="n">
         <v>6483</v>
       </c>
       <c r="E392" s="0" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F392" s="0" t="s">
         <v>2157</v>
       </c>
-      <c r="F392" s="0" t="s">
+      <c r="G392" s="0" t="s">
+        <v>2067</v>
+      </c>
+      <c r="H392" s="0" t="s">
         <v>2158</v>
       </c>
-      <c r="G392" s="0" t="s">
-        <v>2068</v>
-      </c>
-      <c r="H392" s="0" t="s">
+      <c r="I392" s="0" t="s">
         <v>2159</v>
-      </c>
-      <c r="I392" s="0" t="s">
-        <v>2160</v>
       </c>
       <c r="J392" s="0" t="s">
         <v>12</v>
@@ -21630,36 +21627,36 @@
         <v>399</v>
       </c>
       <c r="L392" s="0" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B393" s="0" t="s">
         <v>2161</v>
       </c>
-    </row>
-    <row r="393" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B393" s="0" t="s">
+      <c r="C393" s="0" t="s">
         <v>2162</v>
-      </c>
-      <c r="C393" s="0" t="s">
-        <v>2163</v>
       </c>
       <c r="D393" s="0" t="n">
         <v>8869</v>
       </c>
       <c r="E393" s="0" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="G393" s="0" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="H393" s="0" t="s">
         <v>1614</v>
       </c>
       <c r="I393" s="0" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="J393" s="0" t="s">
         <v>12</v>
@@ -21668,220 +21665,220 @@
         <v>316</v>
       </c>
       <c r="L393" s="0" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B394" s="0" t="s">
         <v>2166</v>
       </c>
-    </row>
-    <row r="394" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B394" s="0" t="s">
+      <c r="C394" s="0" t="s">
         <v>2167</v>
-      </c>
-      <c r="C394" s="0" t="s">
-        <v>2168</v>
       </c>
       <c r="D394" s="0" t="n">
         <v>81849</v>
       </c>
       <c r="E394" s="0" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F394" s="0" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G394" s="0" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H394" s="0" t="s">
         <v>2169</v>
       </c>
-      <c r="F394" s="0" t="s">
-        <v>2158</v>
-      </c>
-      <c r="G394" s="0" t="s">
-        <v>2077</v>
-      </c>
-      <c r="H394" s="0" t="s">
+      <c r="I394" s="0" t="s">
         <v>2170</v>
       </c>
-      <c r="I394" s="0" t="s">
-        <v>2171</v>
-      </c>
       <c r="J394" s="0" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="K394" s="0" t="s">
         <v>34</v>
       </c>
       <c r="L394" s="0" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B395" s="0" t="s">
         <v>2172</v>
       </c>
-    </row>
-    <row r="395" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B395" s="0" t="s">
+      <c r="C395" s="0" t="s">
         <v>2173</v>
-      </c>
-      <c r="C395" s="0" t="s">
-        <v>2174</v>
       </c>
       <c r="D395" s="0" t="n">
         <v>30815</v>
       </c>
       <c r="E395" s="0" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F395" s="0" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G395" s="0" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H395" s="0" t="s">
+        <v>2169</v>
+      </c>
+      <c r="I395" s="0" t="s">
+        <v>2170</v>
+      </c>
+      <c r="J395" s="0" t="s">
         <v>2175</v>
       </c>
-      <c r="F395" s="0" t="s">
-        <v>2158</v>
-      </c>
-      <c r="G395" s="0" t="s">
-        <v>2077</v>
-      </c>
-      <c r="H395" s="0" t="s">
-        <v>2170</v>
-      </c>
-      <c r="I395" s="0" t="s">
+      <c r="K395" s="0" t="s">
+        <v>2176</v>
+      </c>
+      <c r="L395" s="0" t="s">
         <v>2171</v>
       </c>
-      <c r="J395" s="0" t="s">
-        <v>2176</v>
-      </c>
-      <c r="K395" s="0" t="s">
+    </row>
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396" s="0" t="s">
         <v>2177</v>
       </c>
-      <c r="L395" s="0" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="396" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B396" s="0" t="s">
+      <c r="C396" s="0" t="s">
         <v>2178</v>
-      </c>
-      <c r="C396" s="0" t="s">
-        <v>2179</v>
       </c>
       <c r="D396" s="0" t="n">
         <v>6489</v>
       </c>
       <c r="E396" s="0" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F396" s="0" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G396" s="0" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H396" s="0" t="s">
         <v>2180</v>
       </c>
-      <c r="F396" s="0" t="s">
-        <v>2158</v>
-      </c>
-      <c r="G396" s="0" t="s">
-        <v>2087</v>
-      </c>
-      <c r="H396" s="0" t="s">
+      <c r="I396" s="0" t="s">
         <v>2181</v>
       </c>
-      <c r="I396" s="0" t="s">
+      <c r="J396" s="0" t="s">
         <v>2182</v>
-      </c>
-      <c r="J396" s="0" t="s">
-        <v>2183</v>
       </c>
       <c r="K396" s="0" t="s">
         <v>34</v>
       </c>
       <c r="L396" s="0" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B397" s="0" t="s">
         <v>2184</v>
       </c>
-    </row>
-    <row r="397" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B397" s="0" t="s">
+      <c r="C397" s="0" t="s">
         <v>2185</v>
-      </c>
-      <c r="C397" s="0" t="s">
-        <v>2186</v>
       </c>
       <c r="D397" s="0" t="n">
         <v>29906</v>
       </c>
       <c r="E397" s="0" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F397" s="0" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G397" s="0" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H397" s="0" t="s">
         <v>2187</v>
       </c>
-      <c r="F397" s="0" t="s">
-        <v>2158</v>
-      </c>
-      <c r="G397" s="0" t="s">
-        <v>2087</v>
-      </c>
-      <c r="H397" s="0" t="s">
+      <c r="I397" s="0" t="s">
         <v>2188</v>
       </c>
-      <c r="I397" s="0" t="s">
+      <c r="J397" s="0" t="s">
         <v>2189</v>
-      </c>
-      <c r="J397" s="0" t="s">
-        <v>2190</v>
       </c>
       <c r="K397" s="0" t="s">
         <v>34</v>
       </c>
       <c r="L397" s="0" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="0" t="s">
         <v>2191</v>
       </c>
-    </row>
-    <row r="398" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B398" s="0" t="s">
+      <c r="C398" s="0" t="s">
         <v>2192</v>
-      </c>
-      <c r="C398" s="0" t="s">
-        <v>2193</v>
       </c>
       <c r="D398" s="0" t="n">
         <v>28</v>
       </c>
       <c r="E398" s="0" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F398" s="0" t="s">
         <v>2194</v>
       </c>
-      <c r="F398" s="0" t="s">
+      <c r="G398" s="0" t="s">
         <v>2195</v>
       </c>
-      <c r="G398" s="0" t="s">
+      <c r="H398" s="0" t="s">
         <v>2196</v>
       </c>
-      <c r="H398" s="0" t="s">
+      <c r="I398" s="0" t="s">
         <v>2197</v>
       </c>
-      <c r="I398" s="0" t="s">
+      <c r="J398" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K398" s="0" t="s">
         <v>2198</v>
       </c>
-      <c r="J398" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K398" s="0" t="s">
+      <c r="L398" s="0" t="s">
         <v>2199</v>
       </c>
-      <c r="L398" s="0" t="s">
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B399" s="0" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="399" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B399" s="0" t="s">
+      <c r="C399" s="0" t="s">
         <v>2201</v>
-      </c>
-      <c r="C399" s="0" t="s">
-        <v>2202</v>
       </c>
       <c r="D399" s="0" t="n">
         <v>127550</v>
       </c>
       <c r="E399" s="0" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F399" s="0" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G399" s="0" t="s">
         <v>2203</v>
-      </c>
-      <c r="F399" s="0" t="s">
-        <v>2195</v>
-      </c>
-      <c r="G399" s="0" t="s">
-        <v>2204</v>
       </c>
       <c r="H399" s="0" t="s">
         <v>59</v>
@@ -21899,33 +21896,33 @@
         <v>59</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B400" s="0" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C400" s="0" t="s">
         <v>2205</v>
-      </c>
-      <c r="C400" s="0" t="s">
-        <v>2206</v>
       </c>
       <c r="D400" s="0" t="n">
         <v>23333</v>
       </c>
       <c r="E400" s="0" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F400" s="0" t="s">
         <v>2207</v>
       </c>
-      <c r="F400" s="0" t="s">
+      <c r="G400" s="0" t="s">
         <v>2208</v>
       </c>
-      <c r="G400" s="0" t="s">
+      <c r="H400" s="0" t="s">
         <v>2209</v>
       </c>
-      <c r="H400" s="0" t="s">
+      <c r="I400" s="0" t="s">
         <v>2210</v>
-      </c>
-      <c r="I400" s="0" t="s">
-        <v>2211</v>
       </c>
       <c r="J400" s="0" t="s">
         <v>12</v>
@@ -21934,36 +21931,36 @@
         <v>707</v>
       </c>
       <c r="L400" s="0" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B401" s="0" t="s">
         <v>2212</v>
       </c>
-    </row>
-    <row r="401" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B401" s="0" t="s">
+      <c r="C401" s="0" t="s">
         <v>2213</v>
-      </c>
-      <c r="C401" s="0" t="s">
-        <v>2214</v>
       </c>
       <c r="D401" s="0" t="n">
         <v>283417</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="F401" s="0" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G401" s="0" t="s">
         <v>2208</v>
       </c>
-      <c r="G401" s="0" t="s">
+      <c r="H401" s="0" t="s">
         <v>2209</v>
       </c>
-      <c r="H401" s="0" t="s">
+      <c r="I401" s="0" t="s">
         <v>2210</v>
-      </c>
-      <c r="I401" s="0" t="s">
-        <v>2211</v>
       </c>
       <c r="J401" s="0" t="s">
         <v>12</v>
@@ -21972,36 +21969,36 @@
         <v>707</v>
       </c>
       <c r="L401" s="0" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B402" s="0" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C402" s="0" t="s">
         <v>2216</v>
-      </c>
-      <c r="C402" s="0" t="s">
-        <v>2217</v>
       </c>
       <c r="D402" s="0" t="n">
         <v>147991</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="F402" s="0" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G402" s="0" t="s">
         <v>2208</v>
       </c>
-      <c r="G402" s="0" t="s">
+      <c r="H402" s="0" t="s">
         <v>2209</v>
       </c>
-      <c r="H402" s="0" t="s">
+      <c r="I402" s="0" t="s">
         <v>2210</v>
-      </c>
-      <c r="I402" s="0" t="s">
-        <v>2211</v>
       </c>
       <c r="J402" s="0" t="s">
         <v>12</v>
@@ -22010,36 +22007,36 @@
         <v>707</v>
       </c>
       <c r="L402" s="0" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B403" s="0" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C403" s="0" t="s">
         <v>2219</v>
-      </c>
-      <c r="C403" s="0" t="s">
-        <v>2220</v>
       </c>
       <c r="D403" s="0" t="n">
         <v>286148</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F403" s="0" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G403" s="0" t="s">
         <v>2208</v>
       </c>
-      <c r="G403" s="0" t="s">
+      <c r="H403" s="0" t="s">
         <v>2209</v>
       </c>
-      <c r="H403" s="0" t="s">
+      <c r="I403" s="0" t="s">
         <v>2210</v>
-      </c>
-      <c r="I403" s="0" t="s">
-        <v>2211</v>
       </c>
       <c r="J403" s="0" t="s">
         <v>12</v>
@@ -22048,33 +22045,33 @@
         <v>707</v>
       </c>
       <c r="L403" s="0" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B404" s="0" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C404" s="0" t="s">
         <v>2222</v>
-      </c>
-      <c r="C404" s="0" t="s">
-        <v>2223</v>
       </c>
       <c r="D404" s="0" t="n">
         <v>29071</v>
       </c>
       <c r="E404" s="0" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F404" s="0" t="s">
         <v>2224</v>
-      </c>
-      <c r="F404" s="0" t="s">
-        <v>2225</v>
       </c>
       <c r="G404" s="0" t="s">
         <v>1294</v>
       </c>
       <c r="H404" s="0" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="I404" s="0" t="s">
         <v>59</v>
@@ -22090,14 +22087,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L404">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="GAL3ST2"/>
-        <filter val="GAL3ST3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L404"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
